--- a/data/tabela1.xlsx
+++ b/data/tabela1.xlsx
@@ -4123,8 +4123,8 @@
   <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S27" sqref="S27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10831,8 +10831,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="P182" sqref="P182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10903,10 +10903,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="79">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D3" s="80">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="E3" s="81">
         <v>0</v>
@@ -10936,13 +10936,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="68">
-        <v>8775.2266550000004</v>
+        <v>2.4375629597222224</v>
       </c>
       <c r="D4" s="69">
-        <v>8846.0474969999996</v>
+        <v>2.4572354158333334</v>
       </c>
       <c r="E4" s="70">
-        <v>78.340135000000004</v>
+        <v>2.1761148611111111E-2</v>
       </c>
       <c r="F4" s="71">
         <v>87.977999999999994</v>
@@ -10969,13 +10969,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="68">
-        <v>9049.1506420000005</v>
+        <v>2.5136529561111112</v>
       </c>
       <c r="D5" s="69">
-        <v>9274.7674719999995</v>
+        <v>2.5763242977777776</v>
       </c>
       <c r="E5" s="70">
-        <v>129.95284699999999</v>
+        <v>3.6098013055555551E-2</v>
       </c>
       <c r="F5" s="71">
         <v>182.44</v>
@@ -11002,10 +11002,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="78">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D6" s="82">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="E6" s="83">
         <v>0</v>
@@ -11035,10 +11035,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="78">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D7" s="82">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="E7" s="83">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="68">
-        <v>8783.5290949999999</v>
+        <v>2.4398691930555554</v>
       </c>
       <c r="D8" s="69">
-        <v>8988.5020280000008</v>
+        <v>2.4968061188888893</v>
       </c>
       <c r="E8" s="70">
-        <v>127.671415</v>
+        <v>3.5464281944444447E-2</v>
       </c>
       <c r="F8" s="71">
         <v>87.882999999999996</v>
@@ -11101,13 +11101,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="78">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D9" s="69">
-        <v>8815.6140329999998</v>
+        <v>2.4487816758333332</v>
       </c>
       <c r="E9" s="70">
-        <v>145.42293000000001</v>
+        <v>4.0395258333333336E-2</v>
       </c>
       <c r="F9" s="71">
         <v>39.756</v>
@@ -11134,13 +11134,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="78">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D10" s="69">
-        <v>8737.1900819999992</v>
+        <v>2.4269972449999999</v>
       </c>
       <c r="E10" s="70">
-        <v>21.263090999999999</v>
+        <v>5.9064141666666662E-3</v>
       </c>
       <c r="F10" s="71">
         <v>51.707999999999998</v>
@@ -11167,10 +11167,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="78">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D11" s="82">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="E11" s="83">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="78">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D12" s="69">
-        <v>8830.1046409999999</v>
+        <v>2.4528068447222222</v>
       </c>
       <c r="E12" s="70">
-        <v>137.50931399999999</v>
+        <v>3.8197031666666666E-2</v>
       </c>
       <c r="F12" s="71">
         <v>70.86</v>
@@ -11235,13 +11235,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="78">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D13" s="69">
-        <v>8770.6989759999997</v>
+        <v>2.4363052711111108</v>
       </c>
       <c r="E13" s="70">
-        <v>24.315054</v>
+        <v>6.7541816666666669E-3</v>
       </c>
       <c r="F13" s="71">
         <v>57.279000000000003</v>
@@ -11268,13 +11268,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="78">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D14" s="69">
-        <v>8802.436377</v>
+        <v>2.4451212158333333</v>
       </c>
       <c r="E14" s="70">
-        <v>81.520070000000004</v>
+        <v>2.264446388888889E-2</v>
       </c>
       <c r="F14" s="71">
         <v>82.835999999999999</v>
@@ -11301,13 +11301,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="78">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D15" s="69">
-        <v>8945.5949949999995</v>
+        <v>2.4848874986111111</v>
       </c>
       <c r="E15" s="70">
-        <v>174.55668600000001</v>
+        <v>4.8487968333333339E-2</v>
       </c>
       <c r="F15" s="71">
         <v>50.113999999999997</v>
@@ -11334,13 +11334,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="68">
-        <v>8783.5290949999999</v>
+        <v>2.4398691930555554</v>
       </c>
       <c r="D16" s="69">
-        <v>8903.0613360000007</v>
+        <v>2.4730725933333337</v>
       </c>
       <c r="E16" s="70">
-        <v>117.747032</v>
+        <v>3.2707508888888889E-2</v>
       </c>
       <c r="F16" s="71">
         <v>101.276</v>
@@ -11367,13 +11367,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="68">
-        <v>8783.5290949999999</v>
+        <v>2.4398691930555554</v>
       </c>
       <c r="D17" s="69">
-        <v>9001.3550419999992</v>
+        <v>2.5003764005555555</v>
       </c>
       <c r="E17" s="70">
-        <v>313.89487100000002</v>
+        <v>8.7193019722222223E-2</v>
       </c>
       <c r="F17" s="71">
         <v>114.48</v>
@@ -11400,13 +11400,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="78">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D18" s="69">
-        <v>8748.3597129999998</v>
+        <v>2.4300999202777778</v>
       </c>
       <c r="E18" s="70">
-        <v>28.467320000000001</v>
+        <v>7.9075888888888897E-3</v>
       </c>
       <c r="F18" s="71">
         <v>65.096999999999994</v>
@@ -11433,13 +11433,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="68">
-        <v>8775.2266550000004</v>
+        <v>2.4375629597222224</v>
       </c>
       <c r="D19" s="69">
-        <v>8780.2081190000008</v>
+        <v>2.4389466997222224</v>
       </c>
       <c r="E19" s="70">
-        <v>4.547434</v>
+        <v>1.2631761111111112E-3</v>
       </c>
       <c r="F19" s="71">
         <v>55.192999999999998</v>
@@ -11466,13 +11466,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="78">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D20" s="69">
-        <v>8817.2745209999994</v>
+        <v>2.4492429224999999</v>
       </c>
       <c r="E20" s="70">
-        <v>144.89291800000001</v>
+        <v>4.0248032777777783E-2</v>
       </c>
       <c r="F20" s="71">
         <v>57.426000000000002</v>
@@ -11499,13 +11499,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="68">
-        <v>8775.2266550000004</v>
+        <v>2.4375629597222224</v>
       </c>
       <c r="D21" s="69">
-        <v>8897.3589609999999</v>
+        <v>2.4714886002777776</v>
       </c>
       <c r="E21" s="70">
-        <v>159.693465</v>
+        <v>4.4359295833333333E-2</v>
       </c>
       <c r="F21" s="71">
         <v>79.447000000000003</v>
@@ -11532,13 +11532,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="77">
-        <v>8727.6809379999995</v>
+        <v>2.424355816111111</v>
       </c>
       <c r="D22" s="72">
-        <v>8796.5957469999994</v>
+        <v>2.4434988186111108</v>
       </c>
       <c r="E22" s="73">
-        <v>154.098196</v>
+        <v>4.2805054444444442E-2</v>
       </c>
       <c r="F22" s="74">
         <v>37.901000000000003</v>
@@ -11565,10 +11565,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D23" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E23" s="86">
         <v>0</v>
@@ -11598,10 +11598,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D24" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E24" s="86">
         <v>0</v>
@@ -11631,10 +11631,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D25" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E25" s="86">
         <v>0</v>
@@ -11664,10 +11664,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D26" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E26" s="86">
         <v>0</v>
@@ -11697,10 +11697,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D27" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E27" s="86">
         <v>0</v>
@@ -11730,10 +11730,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D28" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E28" s="86">
         <v>0</v>
@@ -11763,10 +11763,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D29" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E29" s="86">
         <v>0</v>
@@ -11796,10 +11796,10 @@
         <v>7</v>
       </c>
       <c r="C30" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D30" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E30" s="86">
         <v>0</v>
@@ -11829,10 +11829,10 @@
         <v>8</v>
       </c>
       <c r="C31" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D31" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E31" s="86">
         <v>0</v>
@@ -11862,10 +11862,10 @@
         <v>9</v>
       </c>
       <c r="C32" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D32" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E32" s="86">
         <v>0</v>
@@ -11897,10 +11897,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D33" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E33" s="86">
         <v>0</v>
@@ -11930,10 +11930,10 @@
         <v>11</v>
       </c>
       <c r="C34" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D34" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E34" s="86">
         <v>0</v>
@@ -11963,10 +11963,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D35" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E35" s="86">
         <v>0</v>
@@ -11996,10 +11996,10 @@
         <v>13</v>
       </c>
       <c r="C36" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D36" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E36" s="86">
         <v>0</v>
@@ -12029,10 +12029,10 @@
         <v>14</v>
       </c>
       <c r="C37" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D37" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E37" s="86">
         <v>0</v>
@@ -12062,10 +12062,10 @@
         <v>15</v>
       </c>
       <c r="C38" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D38" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E38" s="86">
         <v>0</v>
@@ -12095,10 +12095,10 @@
         <v>16</v>
       </c>
       <c r="C39" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D39" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E39" s="86">
         <v>0</v>
@@ -12128,10 +12128,10 @@
         <v>17</v>
       </c>
       <c r="C40" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D40" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E40" s="86">
         <v>0</v>
@@ -12161,10 +12161,10 @@
         <v>18</v>
       </c>
       <c r="C41" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D41" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E41" s="86">
         <v>0</v>
@@ -12194,10 +12194,10 @@
         <v>19</v>
       </c>
       <c r="C42" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="D42" s="85">
-        <v>8952.9160260000008</v>
+        <v>2.4869211183333335</v>
       </c>
       <c r="E42" s="86">
         <v>0</v>
@@ -12227,13 +12227,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="65">
-        <v>15835.036902</v>
+        <v>4.3986213616666667</v>
       </c>
       <c r="D43" s="65">
-        <v>16494.020477999999</v>
+        <v>4.5816723549999994</v>
       </c>
       <c r="E43" s="66">
-        <v>422.63932499999999</v>
+        <v>0.11739981249999999</v>
       </c>
       <c r="F43" s="65">
         <v>633.23400000000004</v>
@@ -12260,13 +12260,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="69">
-        <v>12628.715584</v>
+        <v>3.5079765511111112</v>
       </c>
       <c r="D44" s="69">
-        <v>14289.500626999999</v>
+        <v>3.9693057297222221</v>
       </c>
       <c r="E44" s="70">
-        <v>1169.604298</v>
+        <v>0.32489008277777776</v>
       </c>
       <c r="F44" s="69">
         <v>122.843</v>
@@ -12293,13 +12293,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="69">
-        <v>12499.992748000001</v>
+        <v>3.4722202077777777</v>
       </c>
       <c r="D45" s="69">
-        <v>14075.836880000001</v>
+        <v>3.909954688888889</v>
       </c>
       <c r="E45" s="70">
-        <v>923.53004099999998</v>
+        <v>0.25653612250000002</v>
       </c>
       <c r="F45" s="69">
         <v>137.136</v>
@@ -12326,13 +12326,13 @@
         <v>3</v>
       </c>
       <c r="C46" s="69">
-        <v>12492.039558</v>
+        <v>3.4700109883333337</v>
       </c>
       <c r="D46" s="69">
-        <v>13891.310520000001</v>
+        <v>3.8586973666666671</v>
       </c>
       <c r="E46" s="70">
-        <v>1612.093529</v>
+        <v>0.44780375805555556</v>
       </c>
       <c r="F46" s="69">
         <v>88.132999999999996</v>
@@ -12359,13 +12359,13 @@
         <v>4</v>
       </c>
       <c r="C47" s="69">
-        <v>12503.295189</v>
+        <v>3.4731375524999999</v>
       </c>
       <c r="D47" s="69">
-        <v>13623.718349000001</v>
+        <v>3.7843662080555558</v>
       </c>
       <c r="E47" s="70">
-        <v>916.12130300000001</v>
+        <v>0.25447813972222222</v>
       </c>
       <c r="F47" s="69">
         <v>614.61</v>
@@ -12392,13 +12392,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="69">
-        <v>12688.522972000001</v>
+        <v>3.5245897144444447</v>
       </c>
       <c r="D48" s="69">
-        <v>13347.801237</v>
+        <v>3.707722565833333</v>
       </c>
       <c r="E48" s="70">
-        <v>877.46256800000003</v>
+        <v>0.24373960222222224</v>
       </c>
       <c r="F48" s="69">
         <v>104.779</v>
@@ -12425,13 +12425,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="69">
-        <v>14248.244461</v>
+        <v>3.9578456836111111</v>
       </c>
       <c r="D49" s="69">
-        <v>14425.487223</v>
+        <v>4.0070797841666668</v>
       </c>
       <c r="E49" s="70">
-        <v>294.50145300000003</v>
+        <v>8.1805959166666678E-2</v>
       </c>
       <c r="F49" s="69">
         <v>201.07900000000001</v>
@@ -12458,13 +12458,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="69">
-        <v>12587.705214</v>
+        <v>3.4965847816666664</v>
       </c>
       <c r="D50" s="69">
-        <v>14246.000711999999</v>
+        <v>3.9572224199999999</v>
       </c>
       <c r="E50" s="70">
-        <v>1480.867647</v>
+        <v>0.41135212416666667</v>
       </c>
       <c r="F50" s="69">
         <v>218.49100000000001</v>
@@ -12491,13 +12491,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="69">
-        <v>14304.321367</v>
+        <v>3.9734226019444447</v>
       </c>
       <c r="D51" s="69">
-        <v>14609.651868999999</v>
+        <v>4.0582366302777775</v>
       </c>
       <c r="E51" s="70">
-        <v>638.40776300000005</v>
+        <v>0.17733548972222224</v>
       </c>
       <c r="F51" s="69">
         <v>228.07599999999999</v>
@@ -12524,13 +12524,13 @@
         <v>9</v>
       </c>
       <c r="C52" s="69">
-        <v>12492.039558</v>
+        <v>3.4700109883333337</v>
       </c>
       <c r="D52" s="69">
-        <v>13266.384027</v>
+        <v>3.6851066741666667</v>
       </c>
       <c r="E52" s="70">
-        <v>946.51597600000002</v>
+        <v>0.26292110444444444</v>
       </c>
       <c r="F52" s="69">
         <v>193.125</v>
@@ -12559,13 +12559,13 @@
         <v>10</v>
       </c>
       <c r="C53" s="69">
-        <v>14307.543197999999</v>
+        <v>3.9743175549999998</v>
       </c>
       <c r="D53" s="69">
-        <v>14326.231254</v>
-      </c>
-      <c r="E53" s="70">
-        <v>28.593060000000001</v>
+        <v>3.9795086816666667</v>
+      </c>
+      <c r="E53" s="83">
+        <v>7.9425166666666665E-3</v>
       </c>
       <c r="F53" s="69">
         <v>190.232</v>
@@ -12592,13 +12592,13 @@
         <v>11</v>
       </c>
       <c r="C54" s="69">
-        <v>12688.522972000001</v>
+        <v>3.5245897144444447</v>
       </c>
       <c r="D54" s="69">
-        <v>13971.689833</v>
+        <v>3.881024953611111</v>
       </c>
       <c r="E54" s="70">
-        <v>717.60515999999996</v>
+        <v>0.19933476666666666</v>
       </c>
       <c r="F54" s="69">
         <v>198.39</v>
@@ -12625,13 +12625,13 @@
         <v>12</v>
       </c>
       <c r="C55" s="69">
-        <v>12426.286908</v>
+        <v>3.4517463633333332</v>
       </c>
       <c r="D55" s="69">
-        <v>13203.149299999999</v>
+        <v>3.6675414722222222</v>
       </c>
       <c r="E55" s="70">
-        <v>793.41899899999999</v>
+        <v>0.2203941663888889</v>
       </c>
       <c r="F55" s="69">
         <v>127.373</v>
@@ -12658,13 +12658,13 @@
         <v>13</v>
       </c>
       <c r="C56" s="69">
-        <v>12492.039558</v>
+        <v>3.4700109883333337</v>
       </c>
       <c r="D56" s="69">
-        <v>13582.996453</v>
+        <v>3.7730545702777776</v>
       </c>
       <c r="E56" s="70">
-        <v>995.45581700000002</v>
+        <v>0.27651550472222225</v>
       </c>
       <c r="F56" s="69">
         <v>160.36099999999999</v>
@@ -12691,13 +12691,13 @@
         <v>14</v>
       </c>
       <c r="C57" s="69">
-        <v>12688.522972000001</v>
+        <v>3.5245897144444447</v>
       </c>
       <c r="D57" s="69">
-        <v>14013.553818</v>
+        <v>3.8926538383333336</v>
       </c>
       <c r="E57" s="70">
-        <v>797.10496499999999</v>
+        <v>0.22141804583333333</v>
       </c>
       <c r="F57" s="69">
         <v>105.595</v>
@@ -12724,13 +12724,13 @@
         <v>15</v>
       </c>
       <c r="C58" s="69">
-        <v>12730.661302</v>
+        <v>3.536294806111111</v>
       </c>
       <c r="D58" s="69">
-        <v>13013.559042999999</v>
+        <v>3.6148775119444441</v>
       </c>
       <c r="E58" s="70">
-        <v>585.33907699999997</v>
+        <v>0.16259418805555556</v>
       </c>
       <c r="F58" s="69">
         <v>350.036</v>
@@ -12757,13 +12757,13 @@
         <v>16</v>
       </c>
       <c r="C59" s="69">
-        <v>12503.710379</v>
+        <v>3.4732528830555558</v>
       </c>
       <c r="D59" s="69">
-        <v>13640.442763999999</v>
+        <v>3.7890118788888887</v>
       </c>
       <c r="E59" s="70">
-        <v>925.26115300000004</v>
+        <v>0.25701698694444447</v>
       </c>
       <c r="F59" s="69">
         <v>193.71700000000001</v>
@@ -12790,13 +12790,13 @@
         <v>17</v>
       </c>
       <c r="C60" s="69">
-        <v>13364.764417</v>
+        <v>3.712434560277778</v>
       </c>
       <c r="D60" s="69">
-        <v>14483.399912999999</v>
+        <v>4.0231666424999997</v>
       </c>
       <c r="E60" s="70">
-        <v>1198.5286619999999</v>
+        <v>0.33292462833333331</v>
       </c>
       <c r="F60" s="69">
         <v>188.428</v>
@@ -12823,13 +12823,13 @@
         <v>18</v>
       </c>
       <c r="C61" s="69">
-        <v>12744.599878000001</v>
+        <v>3.5401666327777779</v>
       </c>
       <c r="D61" s="69">
-        <v>13709.733998</v>
+        <v>3.8082594438888888</v>
       </c>
       <c r="E61" s="70">
-        <v>1121.118984</v>
+        <v>0.31142194000000001</v>
       </c>
       <c r="F61" s="69">
         <v>288.75700000000001</v>
@@ -12856,13 +12856,13 @@
         <v>19</v>
       </c>
       <c r="C62" s="72">
-        <v>12435.286908</v>
+        <v>3.4542463633333331</v>
       </c>
       <c r="D62" s="72">
-        <v>14137.595367</v>
+        <v>3.9271098241666667</v>
       </c>
       <c r="E62" s="73">
-        <v>1080.3237429999999</v>
+        <v>0.30008992861111111</v>
       </c>
       <c r="F62" s="72">
         <v>151.03100000000001</v>
@@ -12889,10 +12889,10 @@
         <v>0</v>
       </c>
       <c r="C63" s="65">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="D63" s="65">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="E63" s="66">
         <v>0</v>
@@ -12922,13 +12922,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="69">
-        <v>19264.032121</v>
+        <v>5.3511200336111111</v>
       </c>
       <c r="D64" s="69">
-        <v>20325.6371</v>
+        <v>5.6460103055555555</v>
       </c>
       <c r="E64" s="70">
-        <v>800.46275400000002</v>
+        <v>0.22235076500000001</v>
       </c>
       <c r="F64" s="69">
         <v>1221.175</v>
@@ -12955,13 +12955,13 @@
         <v>2</v>
       </c>
       <c r="C65" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="D65" s="69">
-        <v>14379.474801</v>
+        <v>3.9942985558333333</v>
       </c>
       <c r="E65" s="70">
-        <v>21.986736000000001</v>
+        <v>6.1074266666666672E-3</v>
       </c>
       <c r="F65" s="69">
         <v>162.96600000000001</v>
@@ -12988,10 +12988,10 @@
         <v>3</v>
       </c>
       <c r="C66" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="D66" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="E66" s="70">
         <v>0</v>
@@ -13021,13 +13021,13 @@
         <v>4</v>
       </c>
       <c r="C67" s="69">
-        <v>16179.816516999999</v>
+        <v>4.4943934769444445</v>
       </c>
       <c r="D67" s="69">
-        <v>17880.075994999999</v>
+        <v>4.9666877763888886</v>
       </c>
       <c r="E67" s="70">
-        <v>1867.2374380000001</v>
+        <v>0.5186770661111112</v>
       </c>
       <c r="F67" s="69">
         <v>1481.0640000000001</v>
@@ -13054,10 +13054,10 @@
         <v>5</v>
       </c>
       <c r="C68" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="D68" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="E68" s="70">
         <v>0</v>
@@ -13087,13 +13087,13 @@
         <v>6</v>
       </c>
       <c r="C69" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="D69" s="69">
-        <v>14457.905573</v>
+        <v>4.0160848813888892</v>
       </c>
       <c r="E69" s="70">
-        <v>197.36327299999999</v>
+        <v>5.4823131388888884E-2</v>
       </c>
       <c r="F69" s="69">
         <v>53.862000000000002</v>
@@ -13120,10 +13120,10 @@
         <v>7</v>
       </c>
       <c r="C70" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="D70" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="E70" s="70">
         <v>0</v>
@@ -13153,10 +13153,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="D71" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="E71" s="70">
         <v>0</v>
@@ -13186,10 +13186,10 @@
         <v>9</v>
       </c>
       <c r="C72" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="D72" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="E72" s="70">
         <v>0</v>
@@ -13221,13 +13221,13 @@
         <v>10</v>
       </c>
       <c r="C73" s="69">
-        <v>16181.774277</v>
+        <v>4.4949372991666667</v>
       </c>
       <c r="D73" s="69">
-        <v>19471.978815999999</v>
+        <v>5.4088830044444443</v>
       </c>
       <c r="E73" s="70">
-        <v>3725.395669</v>
+        <v>1.0348321302777779</v>
       </c>
       <c r="F73" s="69">
         <v>897.30100000000004</v>
@@ -13254,13 +13254,13 @@
         <v>11</v>
       </c>
       <c r="C74" s="69">
-        <v>18198.722130999999</v>
+        <v>5.0552005919444438</v>
       </c>
       <c r="D74" s="69">
-        <v>21249.327662</v>
+        <v>5.902591017222222</v>
       </c>
       <c r="E74" s="70">
-        <v>2346.706917</v>
+        <v>0.65186303249999999</v>
       </c>
       <c r="F74" s="69">
         <v>859.90300000000002</v>
@@ -13287,13 +13287,13 @@
         <v>12</v>
       </c>
       <c r="C75" s="69">
-        <v>21293.766894</v>
+        <v>5.9149352483333333</v>
       </c>
       <c r="D75" s="69">
-        <v>23514.211582</v>
+        <v>6.5317254394444442</v>
       </c>
       <c r="E75" s="70">
-        <v>2224.671081</v>
+        <v>0.61796418916666662</v>
       </c>
       <c r="F75" s="69">
         <v>922.37800000000004</v>
@@ -13320,13 +13320,13 @@
         <v>13</v>
       </c>
       <c r="C76" s="69">
-        <v>16534.922906</v>
+        <v>4.5930341405555559</v>
       </c>
       <c r="D76" s="69">
-        <v>17161.443225999999</v>
+        <v>4.7670675627777772</v>
       </c>
       <c r="E76" s="70">
-        <v>911.05920800000001</v>
+        <v>0.2530720022222222</v>
       </c>
       <c r="F76" s="69">
         <v>1202.3720000000001</v>
@@ -13353,13 +13353,13 @@
         <v>14</v>
       </c>
       <c r="C77" s="69">
-        <v>14447.693198000001</v>
+        <v>4.0132481105555557</v>
       </c>
       <c r="D77" s="69">
-        <v>15028.264271</v>
+        <v>4.1745178530555558</v>
       </c>
       <c r="E77" s="70">
-        <v>624.88208999999995</v>
+        <v>0.17357835833333332</v>
       </c>
       <c r="F77" s="69">
         <v>331.07799999999997</v>
@@ -13386,10 +13386,10 @@
         <v>15</v>
       </c>
       <c r="C78" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="D78" s="69">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="E78" s="70">
         <v>0</v>
@@ -13419,13 +13419,13 @@
         <v>16</v>
       </c>
       <c r="C79" s="69">
-        <v>14418.805871</v>
+        <v>4.0052238530555559</v>
       </c>
       <c r="D79" s="69">
-        <v>14826.424917</v>
+        <v>4.1184513658333337</v>
       </c>
       <c r="E79" s="70">
-        <v>545.845598</v>
+        <v>0.15162377722222223</v>
       </c>
       <c r="F79" s="69">
         <v>322.74299999999999</v>
@@ -13452,13 +13452,13 @@
         <v>17</v>
       </c>
       <c r="C80" s="69">
-        <v>18345.335596000001</v>
+        <v>5.0959265544444445</v>
       </c>
       <c r="D80" s="69">
-        <v>21926.505045000002</v>
+        <v>6.0906958458333342</v>
       </c>
       <c r="E80" s="70">
-        <v>3894.9668830000001</v>
+        <v>1.0819352452777777</v>
       </c>
       <c r="F80" s="69">
         <v>893.04700000000003</v>
@@ -13485,13 +13485,13 @@
         <v>18</v>
       </c>
       <c r="C81" s="69">
-        <v>14469.019738999999</v>
+        <v>4.0191721497222224</v>
       </c>
       <c r="D81" s="69">
-        <v>21140.772456999999</v>
+        <v>5.8724367936111106</v>
       </c>
       <c r="E81" s="70">
-        <v>6010.5197889999999</v>
+        <v>1.6695888302777777</v>
       </c>
       <c r="F81" s="69">
         <v>432.21</v>
@@ -13518,13 +13518,13 @@
         <v>19</v>
       </c>
       <c r="C82" s="72">
-        <v>14369.642034</v>
+        <v>3.9915672316666666</v>
       </c>
       <c r="D82" s="72">
-        <v>14637.184033</v>
+        <v>4.0658844536111109</v>
       </c>
       <c r="E82" s="73">
-        <v>598.24209800000006</v>
+        <v>0.16617836055555557</v>
       </c>
       <c r="F82" s="72">
         <v>247.05600000000001</v>
@@ -13551,13 +13551,13 @@
         <v>0</v>
       </c>
       <c r="C83" s="75">
-        <v>24462.459623999999</v>
+        <v>6.795127673333333</v>
       </c>
       <c r="D83" s="75">
-        <v>24837.169792000001</v>
+        <v>6.8992138311111111</v>
       </c>
       <c r="E83" s="76">
-        <v>292.28772500000002</v>
+        <v>8.1191034722222222E-2</v>
       </c>
       <c r="F83" s="75">
         <v>765.83</v>
@@ -13584,13 +13584,13 @@
         <v>1</v>
       </c>
       <c r="C84" s="75">
-        <v>24580.786800999998</v>
+        <v>6.8279963336111109</v>
       </c>
       <c r="D84" s="75">
-        <v>24963.640882</v>
+        <v>6.934344689444444</v>
       </c>
       <c r="E84" s="76">
-        <v>263.36865299999999</v>
+        <v>7.3157959166666661E-2</v>
       </c>
       <c r="F84" s="75">
         <v>926.28</v>
@@ -13617,13 +13617,13 @@
         <v>2</v>
       </c>
       <c r="C85" s="75">
-        <v>24370.970406</v>
+        <v>6.7697140016666664</v>
       </c>
       <c r="D85" s="75">
-        <v>24393.603657</v>
+        <v>6.7760010158333328</v>
       </c>
       <c r="E85" s="76">
-        <v>50.609487000000001</v>
+        <v>1.4058190833333335E-2</v>
       </c>
       <c r="F85" s="75">
         <v>25.963999999999999</v>
@@ -13650,13 +13650,13 @@
         <v>3</v>
       </c>
       <c r="C86" s="75">
-        <v>24388.485271000001</v>
+        <v>6.7745792419444451</v>
       </c>
       <c r="D86" s="75">
-        <v>24508.916859000001</v>
+        <v>6.8080324608333331</v>
       </c>
       <c r="E86" s="76">
-        <v>67.323303999999993</v>
+        <v>1.8700917777777777E-2</v>
       </c>
       <c r="F86" s="75">
         <v>251.364</v>
@@ -13683,13 +13683,13 @@
         <v>4</v>
       </c>
       <c r="C87" s="75">
-        <v>24444.160057000001</v>
+        <v>6.7900444602777776</v>
       </c>
       <c r="D87" s="75">
-        <v>24744.101630000001</v>
+        <v>6.8733615638888894</v>
       </c>
       <c r="E87" s="76">
-        <v>192.68239199999999</v>
+        <v>5.3522886666666665E-2</v>
       </c>
       <c r="F87" s="75">
         <v>644.18200000000002</v>
@@ -13716,13 +13716,13 @@
         <v>5</v>
       </c>
       <c r="C88" s="75">
-        <v>24984.713026000001</v>
+        <v>6.9401980627777782</v>
       </c>
       <c r="D88" s="75">
-        <v>25575.476730999999</v>
+        <v>7.1042990919444442</v>
       </c>
       <c r="E88" s="76">
-        <v>740.79219799999998</v>
+        <v>0.20577561055555554</v>
       </c>
       <c r="F88" s="75">
         <v>683.32299999999998</v>
@@ -13749,13 +13749,13 @@
         <v>6</v>
       </c>
       <c r="C89" s="75">
-        <v>24430.247317000001</v>
+        <v>6.7861798102777779</v>
       </c>
       <c r="D89" s="75">
-        <v>24958.828196999999</v>
+        <v>6.9330078324999995</v>
       </c>
       <c r="E89" s="76">
-        <v>330.40531299999998</v>
+        <v>9.1779253611111111E-2</v>
       </c>
       <c r="F89" s="75">
         <v>598.60799999999995</v>
@@ -13782,13 +13782,13 @@
         <v>7</v>
       </c>
       <c r="C90" s="75">
-        <v>22632.021281000001</v>
+        <v>6.2866725780555557</v>
       </c>
       <c r="D90" s="75">
-        <v>24023.180581000001</v>
+        <v>6.6731057169444448</v>
       </c>
       <c r="E90" s="76">
-        <v>777.681691</v>
+        <v>0.21602269194444446</v>
       </c>
       <c r="F90" s="75">
         <v>25.617000000000001</v>
@@ -13815,13 +13815,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="75">
-        <v>24462.459623999999</v>
+        <v>6.795127673333333</v>
       </c>
       <c r="D91" s="75">
-        <v>24535.382841999999</v>
+        <v>6.8153841227777772</v>
       </c>
       <c r="E91" s="76">
-        <v>64.246097000000006</v>
+        <v>1.7846138055555558E-2</v>
       </c>
       <c r="F91" s="75">
         <v>504.29599999999999</v>
@@ -13848,13 +13848,13 @@
         <v>9</v>
       </c>
       <c r="C92" s="75">
-        <v>24484.13666</v>
+        <v>6.8011490722222225</v>
       </c>
       <c r="D92" s="75">
-        <v>24679.696078000001</v>
+        <v>6.8554711327777778</v>
       </c>
       <c r="E92" s="76">
-        <v>157.92944600000001</v>
+        <v>4.3869290555555558E-2</v>
       </c>
       <c r="F92" s="75">
         <v>441.21300000000002</v>
@@ -13883,13 +13883,13 @@
         <v>10</v>
       </c>
       <c r="C93" s="75">
-        <v>24679.740832</v>
+        <v>6.8554835644444445</v>
       </c>
       <c r="D93" s="75">
-        <v>24974.718976</v>
+        <v>6.9374219377777777</v>
       </c>
       <c r="E93" s="76">
-        <v>266.522402</v>
+        <v>7.4034000555555549E-2</v>
       </c>
       <c r="F93" s="75">
         <v>1137.424</v>
@@ -13916,13 +13916,13 @@
         <v>11</v>
       </c>
       <c r="C94" s="75">
-        <v>24636.461587000002</v>
+        <v>6.8434615519444453</v>
       </c>
       <c r="D94" s="75">
-        <v>24921.820190999999</v>
+        <v>6.9227278308333329</v>
       </c>
       <c r="E94" s="76">
-        <v>238.694154</v>
+        <v>6.6303931666666663E-2</v>
       </c>
       <c r="F94" s="75">
         <v>1294.952</v>
@@ -13949,13 +13949,13 @@
         <v>12</v>
       </c>
       <c r="C95" s="75">
-        <v>25359.463113999998</v>
+        <v>7.0442953094444443</v>
       </c>
       <c r="D95" s="75">
-        <v>25468.694955999999</v>
+        <v>7.0746374877777773</v>
       </c>
       <c r="E95" s="76">
-        <v>177.65427399999999</v>
+        <v>4.9348409444444442E-2</v>
       </c>
       <c r="F95" s="75">
         <v>524.63900000000001</v>
@@ -13982,13 +13982,13 @@
         <v>13</v>
       </c>
       <c r="C96" s="75">
-        <v>24370.970406</v>
+        <v>6.7697140016666664</v>
       </c>
       <c r="D96" s="75">
-        <v>24393.603657</v>
+        <v>6.7760010158333328</v>
       </c>
       <c r="E96" s="76">
-        <v>50.609487000000001</v>
+        <v>1.4058190833333335E-2</v>
       </c>
       <c r="F96" s="75">
         <v>28.399000000000001</v>
@@ -14015,13 +14015,13 @@
         <v>14</v>
       </c>
       <c r="C97" s="75">
-        <v>24333.597175999999</v>
+        <v>6.7593325488888887</v>
       </c>
       <c r="D97" s="75">
-        <v>24431.395511999999</v>
+        <v>6.7864987533333334</v>
       </c>
       <c r="E97" s="76">
-        <v>73.417631</v>
+        <v>2.039378638888889E-2</v>
       </c>
       <c r="F97" s="75">
         <v>89.135999999999996</v>
@@ -14048,13 +14048,13 @@
         <v>15</v>
       </c>
       <c r="C98" s="75">
-        <v>24370.970406</v>
+        <v>6.7697140016666664</v>
       </c>
       <c r="D98" s="75">
-        <v>24393.603657</v>
+        <v>6.7760010158333328</v>
       </c>
       <c r="E98" s="76">
-        <v>50.609487000000001</v>
+        <v>1.4058190833333335E-2</v>
       </c>
       <c r="F98" s="75">
         <v>59.56</v>
@@ -14081,13 +14081,13 @@
         <v>16</v>
       </c>
       <c r="C99" s="75">
-        <v>24698.004528000001</v>
+        <v>6.8605568133333339</v>
       </c>
       <c r="D99" s="75">
-        <v>25024.986747999999</v>
+        <v>6.9513852077777774</v>
       </c>
       <c r="E99" s="76">
-        <v>217.25739999999999</v>
+        <v>6.0349277777777773E-2</v>
       </c>
       <c r="F99" s="75">
         <v>668.745</v>
@@ -14114,13 +14114,13 @@
         <v>17</v>
       </c>
       <c r="C100" s="75">
-        <v>24388.485271000001</v>
+        <v>6.7745792419444451</v>
       </c>
       <c r="D100" s="75">
-        <v>24482.626213</v>
+        <v>6.8007295036111106</v>
       </c>
       <c r="E100" s="76">
-        <v>77.521141</v>
+        <v>2.1533650277777778E-2</v>
       </c>
       <c r="F100" s="75">
         <v>476.959</v>
@@ -14147,13 +14147,13 @@
         <v>18</v>
       </c>
       <c r="C101" s="75">
-        <v>24444.160057000001</v>
+        <v>6.7900444602777776</v>
       </c>
       <c r="D101" s="75">
-        <v>24644.434788999999</v>
+        <v>6.8456763302777777</v>
       </c>
       <c r="E101" s="76">
-        <v>219.08613199999999</v>
+        <v>6.0857258888888884E-2</v>
       </c>
       <c r="F101" s="75">
         <v>789.77099999999996</v>
@@ -14180,13 +14180,13 @@
         <v>19</v>
       </c>
       <c r="C102" s="75">
-        <v>24867.520540000001</v>
+        <v>6.9076445944444451</v>
       </c>
       <c r="D102" s="75">
-        <v>25451.145053</v>
+        <v>7.0697625147222221</v>
       </c>
       <c r="E102" s="76">
-        <v>758.72324100000003</v>
+        <v>0.21075645583333333</v>
       </c>
       <c r="F102" s="75">
         <v>657.07100000000003</v>
@@ -14213,10 +14213,10 @@
         <v>0</v>
       </c>
       <c r="C103" s="65">
-        <v>66136.884816999998</v>
+        <v>183.7135689361111</v>
       </c>
       <c r="D103" s="65">
-        <v>66136.884816999998</v>
+        <v>183.7135689361111</v>
       </c>
       <c r="E103" s="66" t="s">
         <v>12</v>
@@ -14246,13 +14246,13 @@
         <v>1</v>
       </c>
       <c r="C104" s="69">
-        <v>32226.128933</v>
+        <v>8.9517024813888888</v>
       </c>
       <c r="D104" s="69">
-        <v>36975.758219000003</v>
+        <v>10.271043949722223</v>
       </c>
       <c r="E104" s="70">
-        <v>4285.9828630000002</v>
+        <v>1.1905507952777779</v>
       </c>
       <c r="F104" s="69">
         <v>346.09699999999998</v>
@@ -14279,13 +14279,13 @@
         <v>2</v>
       </c>
       <c r="C105" s="69">
-        <v>25548.389643999999</v>
+        <v>7.096774901111111</v>
       </c>
       <c r="D105" s="69">
-        <v>25600.921479000001</v>
+        <v>7.1113670774999997</v>
       </c>
       <c r="E105" s="70">
-        <v>57.128020999999997</v>
+        <v>1.5868894722222221E-2</v>
       </c>
       <c r="F105" s="69">
         <v>190.91399999999999</v>
@@ -14312,13 +14312,13 @@
         <v>3</v>
       </c>
       <c r="C106" s="69">
-        <v>25698.929129</v>
+        <v>7.1385914247222226</v>
       </c>
       <c r="D106" s="69">
-        <v>29793.784331999999</v>
+        <v>8.2760512033333331</v>
       </c>
       <c r="E106" s="70">
-        <v>9156.3745920000001</v>
+        <v>2.5434373866666666</v>
       </c>
       <c r="F106" s="69">
         <v>330.46</v>
@@ -14345,13 +14345,13 @@
         <v>4</v>
       </c>
       <c r="C107" s="69">
-        <v>31357.611807000001</v>
+        <v>8.7104477241666665</v>
       </c>
       <c r="D107" s="69">
-        <v>33373.407420000003</v>
+        <v>9.2703909500000012</v>
       </c>
       <c r="E107" s="70">
-        <v>1840.4304159999999</v>
+        <v>0.51123067111111109</v>
       </c>
       <c r="F107" s="69">
         <v>490.53500000000003</v>
@@ -14378,13 +14378,13 @@
         <v>5</v>
       </c>
       <c r="C108" s="69">
-        <v>25548.389643999999</v>
+        <v>7.096774901111111</v>
       </c>
       <c r="D108" s="69">
-        <v>25623.55473</v>
+        <v>7.1176540916666662</v>
       </c>
       <c r="E108" s="70">
-        <v>70.478433999999993</v>
+        <v>1.9577342777777777E-2</v>
       </c>
       <c r="F108" s="69">
         <v>175.15600000000001</v>
@@ -14411,13 +14411,13 @@
         <v>6</v>
       </c>
       <c r="C109" s="69">
-        <v>25926.896657000001</v>
+        <v>7.2019157380555558</v>
       </c>
       <c r="D109" s="69">
-        <v>26270.59042</v>
+        <v>7.2973862277777783</v>
       </c>
       <c r="E109" s="70">
-        <v>331.29998000000001</v>
+        <v>9.2027772222222221E-2</v>
       </c>
       <c r="F109" s="69">
         <v>486.80799999999999</v>
@@ -14444,10 +14444,10 @@
         <v>7</v>
       </c>
       <c r="C110" s="69">
-        <v>54930.794477000003</v>
+        <v>152.58554021388889</v>
       </c>
       <c r="D110" s="69">
-        <v>54930.794477000003</v>
+        <v>152.58554021388889</v>
       </c>
       <c r="E110" s="70" t="s">
         <v>12</v>
@@ -14477,13 +14477,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="69">
-        <v>37977.390248999996</v>
+        <v>10.549275069166665</v>
       </c>
       <c r="D111" s="69">
-        <v>45623.022470000004</v>
+        <v>12.673061797222223</v>
       </c>
       <c r="E111" s="70">
-        <v>10812.556780999999</v>
+        <v>3.0034879947222222</v>
       </c>
       <c r="F111" s="69">
         <v>341.64</v>
@@ -14510,13 +14510,13 @@
         <v>9</v>
       </c>
       <c r="C112" s="69">
-        <v>25585.762875</v>
+        <v>7.1071563541666665</v>
       </c>
       <c r="D112" s="69">
-        <v>34983.518431999997</v>
+        <v>9.7176440088888878</v>
       </c>
       <c r="E112" s="70">
-        <v>18720.142957</v>
+        <v>5.2000397102777782</v>
       </c>
       <c r="F112" s="69">
         <v>255.654</v>
@@ -14578,10 +14578,10 @@
         <v>11</v>
       </c>
       <c r="C114" s="69">
-        <v>25698.929129</v>
+        <v>7.1385914247222226</v>
       </c>
       <c r="D114" s="69">
-        <v>25698.929129</v>
+        <v>7.1385914247222226</v>
       </c>
       <c r="E114" s="70">
         <v>0</v>
@@ -14611,13 +14611,13 @@
         <v>12</v>
       </c>
       <c r="C115" s="69">
-        <v>25548.389643999999</v>
+        <v>7.096774901111111</v>
       </c>
       <c r="D115" s="69">
-        <v>25623.55473</v>
+        <v>7.1176540916666662</v>
       </c>
       <c r="E115" s="70">
-        <v>70.478433999999993</v>
+        <v>1.9577342777777777E-2</v>
       </c>
       <c r="F115" s="69">
         <v>101.673</v>
@@ -14644,13 +14644,13 @@
         <v>13</v>
       </c>
       <c r="C116" s="69">
-        <v>24647.954389999999</v>
+        <v>6.846653997222222</v>
       </c>
       <c r="D116" s="69">
-        <v>26156.416817000001</v>
+        <v>7.2656713380555562</v>
       </c>
       <c r="E116" s="70">
-        <v>850.045346</v>
+        <v>0.23612370722222223</v>
       </c>
       <c r="F116" s="69">
         <v>1170.107</v>
@@ -14677,10 +14677,12 @@
         <v>14</v>
       </c>
       <c r="C117" s="69">
-        <v>32055.613877</v>
+        <f ca="1">Table14[[#This Row],[Melhor Resultado]]/360</f>
+        <v>89.043371880555554</v>
       </c>
       <c r="D117" s="69">
-        <v>32055.613877</v>
+        <f ca="1">Table14[[#This Row],[Média]]/360</f>
+        <v>89.043371880555554</v>
       </c>
       <c r="E117" s="70" t="s">
         <v>12</v>
@@ -14710,13 +14712,13 @@
         <v>15</v>
       </c>
       <c r="C118" s="69">
-        <v>30808.827753000001</v>
+        <v>8.5580077091666666</v>
       </c>
       <c r="D118" s="69">
-        <v>33233.251779999999</v>
+        <v>9.2314588277777769</v>
       </c>
       <c r="E118" s="70">
-        <v>2679.8911280000002</v>
+        <v>0.74441420222222232</v>
       </c>
       <c r="F118" s="69">
         <v>1308.991</v>
@@ -14743,10 +14745,10 @@
         <v>16</v>
       </c>
       <c r="C119" s="69">
-        <v>25585.762875</v>
+        <v>7.1071563541666665</v>
       </c>
       <c r="D119" s="69">
-        <v>25585.762875</v>
+        <v>7.1071563541666665</v>
       </c>
       <c r="E119" s="70">
         <v>0</v>
@@ -14776,13 +14778,13 @@
         <v>17</v>
       </c>
       <c r="C120" s="69">
-        <v>33942.296488</v>
+        <v>9.4284156911111108</v>
       </c>
       <c r="D120" s="69">
-        <v>34954.805282000001</v>
+        <v>9.7096681338888899</v>
       </c>
       <c r="E120" s="70">
-        <v>717.41711499999997</v>
+        <v>0.19928253194444442</v>
       </c>
       <c r="F120" s="69">
         <v>909.80399999999997</v>
@@ -14809,13 +14811,13 @@
         <v>18</v>
       </c>
       <c r="C121" s="69">
-        <v>23803.654552</v>
+        <v>6.6121262644444441</v>
       </c>
       <c r="D121" s="69">
-        <v>25319.874213999999</v>
+        <v>7.0332983927777777</v>
       </c>
       <c r="E121" s="70">
-        <v>847.59255800000005</v>
+        <v>0.23544237722222225</v>
       </c>
       <c r="F121" s="69">
         <v>252.21100000000001</v>
@@ -14842,13 +14844,13 @@
         <v>19</v>
       </c>
       <c r="C122" s="72">
-        <v>30399.526827999998</v>
+        <v>8.4443130077777777</v>
       </c>
       <c r="D122" s="72">
-        <v>36245.711661000001</v>
+        <v>10.068253239166667</v>
       </c>
       <c r="E122" s="73">
-        <v>5312.8508879999999</v>
+        <v>1.4757919133333333</v>
       </c>
       <c r="F122" s="72">
         <v>696.22699999999998</v>
@@ -14875,13 +14877,13 @@
         <v>0</v>
       </c>
       <c r="C123" s="65">
-        <v>25758.856017999999</v>
+        <v>7.1552377827777773</v>
       </c>
       <c r="D123" s="65">
-        <v>27465.021940999999</v>
+        <v>7.6291727613888884</v>
       </c>
       <c r="E123" s="66">
-        <v>2336.263907</v>
+        <v>0.64896219638888886</v>
       </c>
       <c r="F123" s="65">
         <v>107.746</v>
@@ -14908,13 +14910,13 @@
         <v>1</v>
       </c>
       <c r="C124" s="69">
-        <v>28853.154953000001</v>
+        <v>8.0147652647222234</v>
       </c>
       <c r="D124" s="69">
-        <v>29178.883174999999</v>
+        <v>8.1052453263888893</v>
       </c>
       <c r="E124" s="70">
-        <v>479.69855999999999</v>
+        <v>0.1332496</v>
       </c>
       <c r="F124" s="69">
         <v>273.87700000000001</v>
@@ -14941,13 +14943,13 @@
         <v>2</v>
       </c>
       <c r="C125" s="69">
-        <v>28933.333692</v>
+        <v>8.0370371366666671</v>
       </c>
       <c r="D125" s="69">
-        <v>29602.891915</v>
+        <v>8.2230255319444439</v>
       </c>
       <c r="E125" s="70">
-        <v>577.60548300000005</v>
+        <v>0.16044596750000001</v>
       </c>
       <c r="F125" s="69">
         <v>234.07300000000001</v>
@@ -14974,13 +14976,13 @@
         <v>3</v>
       </c>
       <c r="C126" s="69">
-        <v>25758.856017999999</v>
+        <v>7.1552377827777773</v>
       </c>
       <c r="D126" s="69">
-        <v>27274.694084999999</v>
+        <v>7.5763039124999993</v>
       </c>
       <c r="E126" s="70">
-        <v>1516.8175040000001</v>
+        <v>0.42133819555555557</v>
       </c>
       <c r="F126" s="69">
         <v>141.02000000000001</v>
@@ -15007,13 +15009,13 @@
         <v>4</v>
       </c>
       <c r="C127" s="69">
-        <v>29004.932625000001</v>
+        <v>8.0569257291666663</v>
       </c>
       <c r="D127" s="69">
-        <v>29415.900216999999</v>
+        <v>8.1710833936111111</v>
       </c>
       <c r="E127" s="70">
-        <v>559.65603699999997</v>
+        <v>0.15546001027777778</v>
       </c>
       <c r="F127" s="69">
         <v>402.50400000000002</v>
@@ -15040,13 +15042,13 @@
         <v>5</v>
       </c>
       <c r="C128" s="69">
-        <v>25758.856017999999</v>
+        <v>7.1552377827777773</v>
       </c>
       <c r="D128" s="69">
-        <v>28137.014253000001</v>
+        <v>7.8158372925000004</v>
       </c>
       <c r="E128" s="70">
-        <v>2148.306853</v>
+        <v>0.59675190361111108</v>
       </c>
       <c r="F128" s="69">
         <v>129.43199999999999</v>
@@ -15073,13 +15075,13 @@
         <v>6</v>
       </c>
       <c r="C129" s="69">
-        <v>27067.196528</v>
+        <v>7.5186657022222221</v>
       </c>
       <c r="D129" s="69">
-        <v>29008.275389999999</v>
+        <v>8.0578542750000004</v>
       </c>
       <c r="E129" s="70">
-        <v>1210.419934</v>
+        <v>0.33622775944444444</v>
       </c>
       <c r="F129" s="69">
         <v>146.50700000000001</v>
@@ -15106,13 +15108,13 @@
         <v>7</v>
       </c>
       <c r="C130" s="69">
-        <v>25914.014470999999</v>
+        <v>7.198337353055555</v>
       </c>
       <c r="D130" s="69">
-        <v>28537.790703999999</v>
+        <v>7.9271640844444438</v>
       </c>
       <c r="E130" s="70">
-        <v>1544.195543</v>
+        <v>0.42894320638888889</v>
       </c>
       <c r="F130" s="69">
         <v>242.20599999999999</v>
@@ -15139,13 +15141,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="69">
-        <v>28827.039353</v>
+        <v>8.0075109313888895</v>
       </c>
       <c r="D131" s="69">
-        <v>28995.298457000001</v>
+        <v>8.0542495713888886</v>
       </c>
       <c r="E131" s="70">
-        <v>100.37695100000001</v>
+        <v>2.7882486388888891E-2</v>
       </c>
       <c r="F131" s="69">
         <v>380.54300000000001</v>
@@ -15172,13 +15174,13 @@
         <v>9</v>
       </c>
       <c r="C132" s="69">
-        <v>28853.154953000001</v>
+        <v>8.0147652647222234</v>
       </c>
       <c r="D132" s="69">
-        <v>29387.019761</v>
+        <v>8.1630610447222214</v>
       </c>
       <c r="E132" s="70">
-        <v>573.95450500000004</v>
+        <v>0.15943180694444445</v>
       </c>
       <c r="F132" s="69">
         <v>177.636</v>
@@ -15207,13 +15209,13 @@
         <v>10</v>
       </c>
       <c r="C133" s="69">
-        <v>28849.774173000002</v>
+        <v>8.0138261591666673</v>
       </c>
       <c r="D133" s="69">
-        <v>29117.733661999999</v>
+        <v>8.0882593505555551</v>
       </c>
       <c r="E133" s="70">
-        <v>511.27010899999999</v>
+        <v>0.14201947472222223</v>
       </c>
       <c r="F133" s="69">
         <v>112.236</v>
@@ -15240,13 +15242,13 @@
         <v>11</v>
       </c>
       <c r="C134" s="69">
-        <v>25870.604353999999</v>
+        <v>7.1862789872222219</v>
       </c>
       <c r="D134" s="69">
-        <v>28748.369728999998</v>
+        <v>7.9856582580555546</v>
       </c>
       <c r="E134" s="70">
-        <v>1702.7984510000001</v>
+        <v>0.47299956972222224</v>
       </c>
       <c r="F134" s="69">
         <v>168.67099999999999</v>
@@ -15273,13 +15275,13 @@
         <v>12</v>
       </c>
       <c r="C135" s="69">
-        <v>28849.774173000002</v>
+        <v>8.0138261591666673</v>
       </c>
       <c r="D135" s="69">
-        <v>29174.573923</v>
+        <v>8.1040483119444442</v>
       </c>
       <c r="E135" s="70">
-        <v>479.52408500000001</v>
+        <v>0.13320113472222223</v>
       </c>
       <c r="F135" s="69">
         <v>338.43299999999999</v>
@@ -15306,13 +15308,13 @@
         <v>13</v>
       </c>
       <c r="C136" s="69">
-        <v>25758.856017999999</v>
+        <v>7.1552377827777773</v>
       </c>
       <c r="D136" s="69">
-        <v>27904.644947000001</v>
+        <v>7.751290263055556</v>
       </c>
       <c r="E136" s="70">
-        <v>2003.7754179999999</v>
+        <v>0.55660428277777774</v>
       </c>
       <c r="F136" s="69">
         <v>119.703</v>
@@ -15339,13 +15341,13 @@
         <v>14</v>
       </c>
       <c r="C137" s="69">
-        <v>25758.856017999999</v>
+        <v>7.1552377827777773</v>
       </c>
       <c r="D137" s="69">
-        <v>29171.187864</v>
+        <v>8.1031077400000004</v>
       </c>
       <c r="E137" s="70">
-        <v>1907.5514920000001</v>
+        <v>0.52987541444444441</v>
       </c>
       <c r="F137" s="69">
         <v>231.755</v>
@@ -15372,13 +15374,13 @@
         <v>15</v>
       </c>
       <c r="C138" s="69">
-        <v>28849.774173000002</v>
+        <v>8.0138261591666673</v>
       </c>
       <c r="D138" s="69">
-        <v>29587.120010999999</v>
+        <v>8.2186444474999991</v>
       </c>
       <c r="E138" s="70">
-        <v>603.35101399999996</v>
+        <v>0.16759750388888889</v>
       </c>
       <c r="F138" s="69">
         <v>215.73599999999999</v>
@@ -15405,13 +15407,13 @@
         <v>16</v>
       </c>
       <c r="C139" s="69">
-        <v>28827.039353</v>
+        <v>8.0075109313888895</v>
       </c>
       <c r="D139" s="69">
-        <v>29340.332883999999</v>
+        <v>8.1500924677777782</v>
       </c>
       <c r="E139" s="70">
-        <v>626.76566700000001</v>
+        <v>0.17410157416666666</v>
       </c>
       <c r="F139" s="69">
         <v>118.791</v>
@@ -15438,13 +15440,13 @@
         <v>17</v>
       </c>
       <c r="C140" s="69">
-        <v>28827.039353</v>
+        <v>8.0075109313888895</v>
       </c>
       <c r="D140" s="69">
-        <v>29545.378236</v>
+        <v>8.2070495100000009</v>
       </c>
       <c r="E140" s="70">
-        <v>655.75068399999998</v>
+        <v>0.18215296777777779</v>
       </c>
       <c r="F140" s="69">
         <v>205.19</v>
@@ -15471,13 +15473,13 @@
         <v>18</v>
       </c>
       <c r="C141" s="69">
-        <v>25758.856017999999</v>
+        <v>7.1552377827777773</v>
       </c>
       <c r="D141" s="69">
-        <v>26051.555810999998</v>
+        <v>7.2365432808333328</v>
       </c>
       <c r="E141" s="70">
-        <v>571.72178399999996</v>
+        <v>0.15881160666666666</v>
       </c>
       <c r="F141" s="69">
         <v>243.98500000000001</v>
@@ -15504,13 +15506,13 @@
         <v>19</v>
       </c>
       <c r="C142" s="72">
-        <v>28033.145664</v>
+        <v>7.7869849066666665</v>
       </c>
       <c r="D142" s="72">
-        <v>28909.818689</v>
+        <v>8.0305051913888885</v>
       </c>
       <c r="E142" s="73">
-        <v>772.14445999999998</v>
+        <v>0.21448457222222223</v>
       </c>
       <c r="F142" s="72">
         <v>362.19799999999998</v>
@@ -15537,13 +15539,13 @@
         <v>0</v>
       </c>
       <c r="C143" s="65">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D143" s="65">
-        <v>26512.517706999999</v>
+        <v>7.3645882519444443</v>
       </c>
       <c r="E143" s="66">
-        <v>679.80931499999997</v>
+        <v>0.18883592083333334</v>
       </c>
       <c r="F143" s="65">
         <v>172.56200000000001</v>
@@ -15570,10 +15572,10 @@
         <v>1</v>
       </c>
       <c r="C144" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D144" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="E144" s="70">
         <v>0</v>
@@ -15603,13 +15605,13 @@
         <v>2</v>
       </c>
       <c r="C145" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D145" s="69">
-        <v>26338.970868</v>
+        <v>7.3163807966666665</v>
       </c>
       <c r="E145" s="70">
-        <v>516.25619900000004</v>
+        <v>0.14340449972222225</v>
       </c>
       <c r="F145" s="69">
         <v>59.488</v>
@@ -15636,10 +15638,10 @@
         <v>3</v>
       </c>
       <c r="C146" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D146" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="E146" s="70">
         <v>0</v>
@@ -15669,13 +15671,13 @@
         <v>4</v>
       </c>
       <c r="C147" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D147" s="69">
-        <v>26392.500616000001</v>
+        <v>7.3312501711111118</v>
       </c>
       <c r="E147" s="70">
-        <v>560.53628000000003</v>
+        <v>0.15570452222222222</v>
       </c>
       <c r="F147" s="69">
         <v>66.856999999999999</v>
@@ -15702,13 +15704,13 @@
         <v>5</v>
       </c>
       <c r="C148" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D148" s="69">
-        <v>26141.978536999999</v>
+        <v>7.2616607047222219</v>
       </c>
       <c r="E148" s="70">
-        <v>281.49316599999997</v>
+        <v>7.8192546111111108E-2</v>
       </c>
       <c r="F148" s="69">
         <v>60.13</v>
@@ -15735,13 +15737,13 @@
         <v>6</v>
       </c>
       <c r="C149" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D149" s="69">
-        <v>26077.041727</v>
+        <v>7.2436227019444441</v>
       </c>
       <c r="E149" s="70">
-        <v>136.290043</v>
+        <v>3.7858345277777775E-2</v>
       </c>
       <c r="F149" s="69">
         <v>185.488</v>
@@ -15768,10 +15770,10 @@
         <v>7</v>
       </c>
       <c r="C150" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D150" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="E150" s="70">
         <v>0</v>
@@ -15801,10 +15803,10 @@
         <v>8</v>
       </c>
       <c r="C151" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D151" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="E151" s="70">
         <v>0</v>
@@ -15834,10 +15836,10 @@
         <v>9</v>
       </c>
       <c r="C152" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D152" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="E152" s="70">
         <v>0</v>
@@ -15869,10 +15871,10 @@
         <v>10</v>
       </c>
       <c r="C153" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D153" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="E153" s="70">
         <v>0</v>
@@ -15902,10 +15904,10 @@
         <v>11</v>
       </c>
       <c r="C154" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D154" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="E154" s="70">
         <v>0</v>
@@ -15935,13 +15937,13 @@
         <v>12</v>
       </c>
       <c r="C155" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D155" s="69">
-        <v>26074.419281999999</v>
+        <v>7.2428942449999996</v>
       </c>
       <c r="E155" s="70">
-        <v>53.811751000000001</v>
+        <v>1.4947708611111112E-2</v>
       </c>
       <c r="F155" s="69">
         <v>647.39300000000003</v>
@@ -15968,10 +15970,10 @@
         <v>13</v>
       </c>
       <c r="C156" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D156" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="E156" s="70">
         <v>0</v>
@@ -16001,10 +16003,10 @@
         <v>14</v>
       </c>
       <c r="C157" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D157" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="E157" s="70">
         <v>0</v>
@@ -16034,13 +16036,13 @@
         <v>15</v>
       </c>
       <c r="C158" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D158" s="69">
-        <v>26434.615171000001</v>
+        <v>7.3429486586111112</v>
       </c>
       <c r="E158" s="70">
-        <v>935.84857099999999</v>
+        <v>0.25995793638888887</v>
       </c>
       <c r="F158" s="69">
         <v>44.552999999999997</v>
@@ -16067,13 +16069,13 @@
         <v>16</v>
       </c>
       <c r="C159" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D159" s="69">
-        <v>26588.446495</v>
+        <v>7.3856795819444443</v>
       </c>
       <c r="E159" s="70">
-        <v>1119.5694820000001</v>
+        <v>0.31099152277777781</v>
       </c>
       <c r="F159" s="69">
         <v>132.631</v>
@@ -16100,13 +16102,13 @@
         <v>17</v>
       </c>
       <c r="C160" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D160" s="69">
-        <v>26387.883199</v>
+        <v>7.3299675552777774</v>
       </c>
       <c r="E160" s="70">
-        <v>551.53700200000003</v>
+        <v>0.15320472277777777</v>
       </c>
       <c r="F160" s="69">
         <v>60.139000000000003</v>
@@ -16133,10 +16135,10 @@
         <v>18</v>
       </c>
       <c r="C161" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D161" s="69">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="E161" s="70">
         <v>0</v>
@@ -16166,13 +16168,13 @@
         <v>19</v>
       </c>
       <c r="C162" s="72">
-        <v>26016.090966</v>
+        <v>7.2266919349999998</v>
       </c>
       <c r="D162" s="72">
-        <v>27088.194650000001</v>
+        <v>7.5244985138888891</v>
       </c>
       <c r="E162" s="73">
-        <v>1370.4630299999999</v>
+        <v>0.38068417499999996</v>
       </c>
       <c r="F162" s="72">
         <v>164.58699999999999</v>
@@ -16199,13 +16201,13 @@
         <v>0</v>
       </c>
       <c r="C163" s="65">
-        <v>38298.443032000003</v>
+        <v>10.638456397777778</v>
       </c>
       <c r="D163" s="65">
-        <v>38684.669436999997</v>
+        <v>10.745741510277776</v>
       </c>
       <c r="E163" s="66">
-        <v>672.20952299999999</v>
+        <v>0.1867248675</v>
       </c>
       <c r="F163" s="65">
         <v>126.03700000000001</v>
@@ -16232,13 +16234,13 @@
         <v>1</v>
       </c>
       <c r="C164" s="69">
-        <v>38371.253011000001</v>
+        <v>10.658681391944445</v>
       </c>
       <c r="D164" s="69">
-        <v>38819.991048999997</v>
+        <v>10.783330846944443</v>
       </c>
       <c r="E164" s="70">
-        <v>827.89282300000002</v>
+        <v>0.2299702286111111</v>
       </c>
       <c r="F164" s="69">
         <v>124.004</v>
@@ -16265,13 +16267,13 @@
         <v>2</v>
       </c>
       <c r="C165" s="69">
-        <v>38447.818142999997</v>
+        <v>10.679949484166666</v>
       </c>
       <c r="D165" s="69">
-        <v>39965.956943999998</v>
+        <v>11.101654706666666</v>
       </c>
       <c r="E165" s="70">
-        <v>852.15804900000001</v>
+        <v>0.23671056916666666</v>
       </c>
       <c r="F165" s="69">
         <v>83.328000000000003</v>
@@ -16298,13 +16300,13 @@
         <v>3</v>
       </c>
       <c r="C166" s="69">
-        <v>36717.230329999999</v>
+        <v>10.199230647222223</v>
       </c>
       <c r="D166" s="69">
-        <v>38793.757885999999</v>
+        <v>10.776043857222222</v>
       </c>
       <c r="E166" s="70">
-        <v>1397.8479769999999</v>
+        <v>0.38829110472222217</v>
       </c>
       <c r="F166" s="69">
         <v>249.49700000000001</v>
@@ -16331,13 +16333,13 @@
         <v>4</v>
       </c>
       <c r="C167" s="69">
-        <v>36045.166821999999</v>
+        <v>10.012546339444444</v>
       </c>
       <c r="D167" s="69">
-        <v>38569.850323999999</v>
+        <v>10.713847312222223</v>
       </c>
       <c r="E167" s="70">
-        <v>1670.135601</v>
+        <v>0.46392655583333331</v>
       </c>
       <c r="F167" s="69">
         <v>90.257000000000005</v>
@@ -16364,13 +16366,13 @@
         <v>5</v>
       </c>
       <c r="C168" s="69">
-        <v>36001.910163</v>
+        <v>10.000530600833333</v>
       </c>
       <c r="D168" s="69">
-        <v>38551.695974000002</v>
+        <v>10.708804437222224</v>
       </c>
       <c r="E168" s="70">
-        <v>1732.8795279999999</v>
+        <v>0.4813554244444444</v>
       </c>
       <c r="F168" s="69">
         <v>129.792</v>
@@ -16397,13 +16399,13 @@
         <v>6</v>
       </c>
       <c r="C169" s="69">
-        <v>38466.497382000001</v>
+        <v>10.685138161666668</v>
       </c>
       <c r="D169" s="69">
-        <v>39504.649239999999</v>
+        <v>10.973513677777778</v>
       </c>
       <c r="E169" s="70">
-        <v>909.61615200000006</v>
+        <v>0.25267115333333334</v>
       </c>
       <c r="F169" s="69">
         <v>211.56899999999999</v>
@@ -16430,13 +16432,13 @@
         <v>7</v>
       </c>
       <c r="C170" s="69">
-        <v>38279.763792999998</v>
+        <v>10.633267720277777</v>
       </c>
       <c r="D170" s="69">
-        <v>39531.192200999998</v>
+        <v>10.980886722499999</v>
       </c>
       <c r="E170" s="70">
-        <v>1138.1547760000001</v>
+        <v>0.31615410444444447</v>
       </c>
       <c r="F170" s="69">
         <v>167.42599999999999</v>
@@ -16463,13 +16465,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="69">
-        <v>35925.345031999997</v>
+        <v>9.9792625088888887</v>
       </c>
       <c r="D171" s="69">
-        <v>38301.800679</v>
+        <v>10.639389077500001</v>
       </c>
       <c r="E171" s="70">
-        <v>1496.298014</v>
+        <v>0.41563833722222221</v>
       </c>
       <c r="F171" s="69">
         <v>199.21899999999999</v>
@@ -16496,13 +16498,13 @@
         <v>9</v>
       </c>
       <c r="C172" s="69">
-        <v>37690.388325</v>
+        <v>10.469552312499999</v>
       </c>
       <c r="D172" s="69">
-        <v>38199.894633999997</v>
+        <v>10.611081842777777</v>
       </c>
       <c r="E172" s="70">
-        <v>297.85992299999998</v>
+        <v>8.2738867499999993E-2</v>
       </c>
       <c r="F172" s="69">
         <v>128.57900000000001</v>
@@ -16531,13 +16533,13 @@
         <v>10</v>
       </c>
       <c r="C173" s="69">
-        <v>38575.184204999998</v>
+        <v>10.715328945833333</v>
       </c>
       <c r="D173" s="69">
-        <v>39843.633259000002</v>
+        <v>11.067675905277778</v>
       </c>
       <c r="E173" s="70">
-        <v>728.27746100000002</v>
+        <v>0.20229929472222222</v>
       </c>
       <c r="F173" s="69">
         <v>217.03</v>
@@ -16564,13 +16566,13 @@
         <v>11</v>
       </c>
       <c r="C174" s="69">
-        <v>38346.937564</v>
+        <v>10.651927101111111</v>
       </c>
       <c r="D174" s="69">
-        <v>39838.084040000002</v>
+        <v>11.066134455555556</v>
       </c>
       <c r="E174" s="70">
-        <v>835.53377699999999</v>
+        <v>0.23209271583333332</v>
       </c>
       <c r="F174" s="69">
         <v>196.804</v>
@@ -16597,13 +16599,13 @@
         <v>12</v>
       </c>
       <c r="C175" s="69">
-        <v>38527.555158000003</v>
+        <v>10.702098655</v>
       </c>
       <c r="D175" s="69">
-        <v>39594.876315000001</v>
+        <v>10.998576754166667</v>
       </c>
       <c r="E175" s="70">
-        <v>933.639904</v>
+        <v>0.25934441777777778</v>
       </c>
       <c r="F175" s="69">
         <v>174.84200000000001</v>
@@ -16630,13 +16632,13 @@
         <v>13</v>
       </c>
       <c r="C176" s="69">
-        <v>38526.441424999997</v>
+        <v>10.701789284722221</v>
       </c>
       <c r="D176" s="69">
-        <v>39955.139565999998</v>
+        <v>11.098649879444444</v>
       </c>
       <c r="E176" s="70">
-        <v>799.619328</v>
+        <v>0.22211648000000001</v>
       </c>
       <c r="F176" s="69">
         <v>176.38399999999999</v>
@@ -16663,13 +16665,13 @@
         <v>14</v>
       </c>
       <c r="C177" s="69">
-        <v>38361.137372999998</v>
+        <v>10.655871492499999</v>
       </c>
       <c r="D177" s="69">
-        <v>39190.832144</v>
+        <v>10.886342262222222</v>
       </c>
       <c r="E177" s="70">
-        <v>966.89979700000004</v>
+        <v>0.26858327694444445</v>
       </c>
       <c r="F177" s="69">
         <v>262.923</v>
@@ -16696,13 +16698,13 @@
         <v>15</v>
       </c>
       <c r="C178" s="69">
-        <v>38392.930047000002</v>
+        <v>10.664702790833333</v>
       </c>
       <c r="D178" s="69">
-        <v>39259.143754999997</v>
+        <v>10.905317709722221</v>
       </c>
       <c r="E178" s="70">
-        <v>990.49203699999998</v>
+        <v>0.27513667694444444</v>
       </c>
       <c r="F178" s="69">
         <v>97.43</v>
@@ -16729,13 +16731,13 @@
         <v>16</v>
       </c>
       <c r="C179" s="69">
-        <v>38319.580034999999</v>
+        <v>10.6443277875</v>
       </c>
       <c r="D179" s="69">
-        <v>38422.290809999999</v>
+        <v>10.672858558333333</v>
       </c>
       <c r="E179" s="70">
-        <v>64.016426999999993</v>
+        <v>1.778234083333333E-2</v>
       </c>
       <c r="F179" s="69">
         <v>126.702</v>
@@ -16762,13 +16764,13 @@
         <v>17</v>
       </c>
       <c r="C180" s="69">
-        <v>38346.937564</v>
+        <v>10.651927101111111</v>
       </c>
       <c r="D180" s="69">
-        <v>38447.714929000002</v>
+        <v>10.679920813611112</v>
       </c>
       <c r="E180" s="70">
-        <v>78.147270000000006</v>
+        <v>2.1707575000000003E-2</v>
       </c>
       <c r="F180" s="69">
         <v>80.448999999999998</v>
@@ -16795,13 +16797,13 @@
         <v>18</v>
       </c>
       <c r="C181" s="69">
-        <v>38346.937564</v>
+        <v>10.651927101111111</v>
       </c>
       <c r="D181" s="69">
-        <v>38881.095007999997</v>
+        <v>10.800304168888887</v>
       </c>
       <c r="E181" s="70">
-        <v>677.78218300000003</v>
+        <v>0.18827282861111111</v>
       </c>
       <c r="F181" s="69">
         <v>124.048</v>
@@ -16828,13 +16830,13 @@
         <v>19</v>
       </c>
       <c r="C182" s="72">
-        <v>35888.743908999997</v>
+        <v>9.9690955302777766</v>
       </c>
       <c r="D182" s="72">
-        <v>37826.7454</v>
+        <v>10.507429277777778</v>
       </c>
       <c r="E182" s="73">
-        <v>1106.509916</v>
+        <v>0.30736386555555556</v>
       </c>
       <c r="F182" s="72">
         <v>86.953000000000003</v>
@@ -16861,13 +16863,13 @@
         <v>0</v>
       </c>
       <c r="C183" s="65">
-        <v>41443.153286000001</v>
+        <v>11.511987023888889</v>
       </c>
       <c r="D183" s="65">
-        <v>45437.664882999998</v>
+        <v>12.621573578611111</v>
       </c>
       <c r="E183" s="66">
-        <v>3497.3408749999999</v>
+        <v>0.97148357638888883</v>
       </c>
       <c r="F183" s="65">
         <v>635.60900000000004</v>
@@ -16894,13 +16896,13 @@
         <v>1</v>
       </c>
       <c r="C184" s="69">
-        <v>36941.162130999997</v>
+        <v>10.261433925277776</v>
       </c>
       <c r="D184" s="69">
-        <v>36947.087861</v>
+        <v>10.26307996138889</v>
       </c>
       <c r="E184" s="70">
-        <v>3.3125840000000002</v>
+        <v>9.2016222222222226E-4</v>
       </c>
       <c r="F184" s="69">
         <v>371.06299999999999</v>
@@ -16927,13 +16929,13 @@
         <v>2</v>
       </c>
       <c r="C185" s="69">
-        <v>51514.939082999997</v>
+        <v>14.309705300833333</v>
       </c>
       <c r="D185" s="69">
-        <v>55423.244766999997</v>
+        <v>15.39534576861111</v>
       </c>
       <c r="E185" s="70">
-        <v>4610.6997250000004</v>
+        <v>1.2807499236111113</v>
       </c>
       <c r="F185" s="69">
         <v>1226.3879999999999</v>
@@ -16960,10 +16962,10 @@
         <v>3</v>
       </c>
       <c r="C186" s="69">
-        <v>52269.748379999997</v>
+        <v>145.19374550000001</v>
       </c>
       <c r="D186" s="69">
-        <v>52269.748379999997</v>
+        <v>145.19374550000001</v>
       </c>
       <c r="E186" s="70" t="s">
         <v>14</v>
@@ -16993,13 +16995,13 @@
         <v>4</v>
       </c>
       <c r="C187" s="69">
-        <v>41706.255814999997</v>
+        <v>11.585071059722221</v>
       </c>
       <c r="D187" s="69">
-        <v>43612.203375999998</v>
+        <v>12.114500937777777</v>
       </c>
       <c r="E187" s="70">
-        <v>1307.0257979999999</v>
+        <v>0.36306272166666664</v>
       </c>
       <c r="F187" s="69">
         <v>1062.462</v>
@@ -17026,13 +17028,13 @@
         <v>5</v>
       </c>
       <c r="C188" s="69">
-        <v>35933.441027000001</v>
+        <v>9.9815113963888891</v>
       </c>
       <c r="D188" s="69">
-        <v>36656.366663000001</v>
+        <v>10.182324073055556</v>
       </c>
       <c r="E188" s="70">
-        <v>408.06967700000001</v>
+        <v>0.11335268805555555</v>
       </c>
       <c r="F188" s="69">
         <v>380.25</v>
@@ -17059,13 +17061,13 @@
         <v>6</v>
       </c>
       <c r="C189" s="69">
-        <v>36893.681198999999</v>
+        <v>10.2482447775</v>
       </c>
       <c r="D189" s="69">
-        <v>42155.306956</v>
+        <v>11.709807487777779</v>
       </c>
       <c r="E189" s="70">
-        <v>11765.352865000001</v>
+        <v>3.2681535736111114</v>
       </c>
       <c r="F189" s="69">
         <v>241.554</v>
@@ -17092,13 +17094,13 @@
         <v>7</v>
       </c>
       <c r="C190" s="69">
-        <v>37468.493764999999</v>
+        <v>10.407914934722221</v>
       </c>
       <c r="D190" s="69">
-        <v>37808.701360999999</v>
+        <v>10.502417044722222</v>
       </c>
       <c r="E190" s="70">
-        <v>360.136346</v>
+        <v>0.10003787388888889</v>
       </c>
       <c r="F190" s="69">
         <v>694.98800000000006</v>
@@ -17125,13 +17127,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="69">
-        <v>36948.569294000001</v>
+        <v>10.263491470555556</v>
       </c>
       <c r="D191" s="69">
-        <v>39041.102340999998</v>
+        <v>10.844750650277778</v>
       </c>
       <c r="E191" s="70">
-        <v>4634.952421</v>
+        <v>1.287486783611111</v>
       </c>
       <c r="F191" s="69">
         <v>1064.4860000000001</v>
@@ -17158,13 +17160,13 @@
         <v>9</v>
       </c>
       <c r="C192" s="69">
-        <v>44732.448020999997</v>
+        <v>12.425680005833332</v>
       </c>
       <c r="D192" s="69">
-        <v>51039.262870999999</v>
+        <v>14.177573019722223</v>
       </c>
       <c r="E192" s="70">
-        <v>5016.3962320000001</v>
+        <v>1.3934433977777778</v>
       </c>
       <c r="F192" s="69">
         <v>1195.338</v>
@@ -17193,13 +17195,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="69">
-        <v>38885.867806000002</v>
+        <v>10.801629946111111</v>
       </c>
       <c r="D193" s="69">
-        <v>43143.065036</v>
+        <v>11.984184732222221</v>
       </c>
       <c r="E193" s="70">
-        <v>3170.9546099999998</v>
+        <v>0.88082072499999997</v>
       </c>
       <c r="F193" s="69">
         <v>1241.6220000000001</v>
@@ -17226,13 +17228,13 @@
         <v>11</v>
       </c>
       <c r="C194" s="69">
-        <v>42568.438847999998</v>
+        <v>11.824566346666666</v>
       </c>
       <c r="D194" s="69">
-        <v>45983.825502</v>
+        <v>12.773284861666667</v>
       </c>
       <c r="E194" s="70">
-        <v>2133.7217700000001</v>
+        <v>0.59270049166666672</v>
       </c>
       <c r="F194" s="69">
         <v>1743.19</v>
@@ -17259,10 +17261,10 @@
         <v>12</v>
       </c>
       <c r="C195" s="69">
-        <v>49083.826955999997</v>
+        <v>136.34396376666666</v>
       </c>
       <c r="D195" s="69">
-        <v>49083.826955999997</v>
+        <v>136.34396376666666</v>
       </c>
       <c r="E195" s="70" t="s">
         <v>14</v>
@@ -17292,13 +17294,13 @@
         <v>13</v>
       </c>
       <c r="C196" s="69">
-        <v>41520.329191999997</v>
+        <v>11.533424775555554</v>
       </c>
       <c r="D196" s="69">
-        <v>47525.756966000001</v>
+        <v>13.201599157222223</v>
       </c>
       <c r="E196" s="70">
-        <v>4393.1559569999999</v>
+        <v>1.2203210991666666</v>
       </c>
       <c r="F196" s="69">
         <v>1097.7249999999999</v>
@@ -17325,10 +17327,10 @@
         <v>14</v>
       </c>
       <c r="C197" s="69">
-        <v>64863.562441000002</v>
+        <v>180.17656233611112</v>
       </c>
       <c r="D197" s="69">
-        <v>64863.562441000002</v>
+        <v>180.17656233611112</v>
       </c>
       <c r="E197" s="70" t="s">
         <v>14</v>
@@ -17358,13 +17360,13 @@
         <v>15</v>
       </c>
       <c r="C198" s="69">
-        <v>36893.681198999999</v>
+        <v>10.2482447775</v>
       </c>
       <c r="D198" s="69">
-        <v>52759.843194000001</v>
+        <v>14.655511998333333</v>
       </c>
       <c r="E198" s="70">
-        <v>10623.13582</v>
+        <v>2.9508710611111111</v>
       </c>
       <c r="F198" s="69">
         <v>603.02800000000002</v>
@@ -17391,13 +17393,13 @@
         <v>16</v>
       </c>
       <c r="C199" s="69">
-        <v>34795.346335000002</v>
+        <v>9.6653739819444446</v>
       </c>
       <c r="D199" s="69">
-        <v>36415.610659999998</v>
+        <v>10.115447405555555</v>
       </c>
       <c r="E199" s="70">
-        <v>906.942634</v>
+        <v>0.25192850944444445</v>
       </c>
       <c r="F199" s="69">
         <v>197.999</v>
@@ -17424,13 +17426,13 @@
         <v>17</v>
       </c>
       <c r="C200" s="69">
-        <v>44837.386807000003</v>
+        <v>12.454829668611112</v>
       </c>
       <c r="D200" s="69">
-        <v>52254.641737999998</v>
+        <v>14.515178260555555</v>
       </c>
       <c r="E200" s="70">
-        <v>9610.5011549999999</v>
+        <v>2.6695836541666664</v>
       </c>
       <c r="F200" s="69">
         <v>1067.567</v>
@@ -17457,13 +17459,13 @@
         <v>18</v>
       </c>
       <c r="C201" s="69">
-        <v>52574.907028000001</v>
+        <v>14.604140841111111</v>
       </c>
       <c r="D201" s="69">
-        <v>57535.167579000001</v>
+        <v>15.981990994166667</v>
       </c>
       <c r="E201" s="70">
-        <v>7014.8677449999996</v>
+        <v>1.948574373611111</v>
       </c>
       <c r="F201" s="69">
         <v>409.55599999999998</v>
@@ -17490,13 +17492,13 @@
         <v>19</v>
       </c>
       <c r="C202" s="72">
-        <v>52595.618025000003</v>
+        <v>14.609893895833334</v>
       </c>
       <c r="D202" s="72">
-        <v>53576.650766999999</v>
+        <v>14.882402990833333</v>
       </c>
       <c r="E202" s="73">
-        <v>1387.3898099999999</v>
+        <v>0.38538605833333328</v>
       </c>
       <c r="F202" s="72">
         <v>478.02</v>
